--- a/exercicios/atividade_grupo2/achocolatados.xlsx
+++ b/exercicios/atividade_grupo2/achocolatados.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4FE4B20-E892-4CB2-94EC-EE7BCDDF4959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64538B8C-EB01-48C0-B251-9D613DD0326D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Respostas ao formulário 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Respostas" sheetId="1" r:id="rId1"/>
     <sheet name="Perguntas" sheetId="3" r:id="rId2"/>
     <sheet name="Medias" sheetId="4" r:id="rId3"/>
   </sheets>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="69">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -506,11 +506,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="R2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W17" sqref="W17:AA17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1805,122 +1805,30 @@
       </c>
     </row>
     <row r="17" spans="4:27" ht="15.75" customHeight="1">
-      <c r="D17" s="3">
-        <f>AVERAGE(D1:D16)</f>
-        <v>5.7333333333333334</v>
-      </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17:J17" si="0">AVERAGE(E1:E16)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="0"/>
-        <v>3.8666666666666667</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9333333333333336</v>
-      </c>
-      <c r="K17" s="3">
-        <f t="shared" ref="K17" si="1">AVERAGE(K1:K16)</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="L17" s="3">
-        <f t="shared" ref="L17" si="2">AVERAGE(L1:L16)</f>
-        <v>3.2666666666666666</v>
-      </c>
-      <c r="M17" s="3">
-        <f t="shared" ref="M17" si="3">AVERAGE(M1:M16)</f>
-        <v>4.7333333333333334</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" ref="N17" si="4">AVERAGE(N1:N16)</f>
-        <v>5.0666666666666664</v>
-      </c>
-      <c r="O17" s="3">
-        <f t="shared" ref="O17:P17" si="5">AVERAGE(O1:O16)</f>
-        <v>3.7333333333333334</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="5"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="Q17" s="3">
-        <f t="shared" ref="Q17" si="6">AVERAGE(Q1:Q16)</f>
-        <v>4.2142857142857144</v>
-      </c>
-      <c r="R17" s="3">
-        <f t="shared" ref="R17" si="7">AVERAGE(R1:R16)</f>
-        <v>3.2666666666666666</v>
-      </c>
-      <c r="S17" s="3">
-        <f t="shared" ref="S17" si="8">AVERAGE(S1:S16)</f>
-        <v>5.5333333333333332</v>
-      </c>
-      <c r="T17" s="3">
-        <f t="shared" ref="T17" si="9">AVERAGE(T1:T16)</f>
-        <v>4.5333333333333332</v>
-      </c>
-      <c r="U17" s="3">
-        <f t="shared" ref="U17:V17" si="10">AVERAGE(U1:U16)</f>
-        <v>2.6</v>
-      </c>
-      <c r="V17" s="3">
-        <f t="shared" si="10"/>
-        <v>3.2307692307692308</v>
-      </c>
-      <c r="W17" s="3">
-        <f t="shared" ref="W17" si="11">AVERAGE(W1:W16)</f>
-        <v>2.9230769230769229</v>
-      </c>
-      <c r="X17" s="3">
-        <f t="shared" ref="X17" si="12">AVERAGE(X1:X16)</f>
-        <v>6</v>
-      </c>
-      <c r="Y17" s="3">
-        <f t="shared" ref="Y17" si="13">AVERAGE(Y1:Y16)</f>
-        <v>3.5384615384615383</v>
-      </c>
-      <c r="Z17" s="3">
-        <f t="shared" ref="Z17" si="14">AVERAGE(Z1:Z16)</f>
-        <v>6.384615384615385</v>
-      </c>
-      <c r="AA17" s="3">
-        <f t="shared" ref="AA17" si="15">AVERAGE(AA1:AA16)</f>
-        <v>5.1538461538461542</v>
-      </c>
-    </row>
-    <row r="19" spans="4:27" ht="15.75" customHeight="1">
-      <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>31</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1934,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2249,7 +2157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91EF4247-60CD-4893-9057-8DC08FEE2920}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
